--- a/Data/Original Data/WorldBank/WorldGovIndex/wgidataset_account.xlsx
+++ b/Data/Original Data/WorldBank/WorldGovIndex/wgidataset_account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schwarze/Documents/GitHub/LegitimacyTerrorism/Data/Original Data/WorldBank/WorldGovIndex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE286409-2612-BF47-A852-D54EDE32BD69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18674802-98DC-4747-AE05-58B06B9C1881}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="460" windowWidth="28440" windowHeight="16600" tabRatio="692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
